--- a/artfynd/A 41718-2021 artfynd.xlsx
+++ b/artfynd/A 41718-2021 artfynd.xlsx
@@ -921,7 +921,7 @@
         <v>131034596</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
